--- a/191126_CART/PBT138 calibration for fast raction/fitted params.xlsx
+++ b/191126_CART/PBT138 calibration for fast raction/fitted params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\MainCalibrationCode-master\MainCalibrationCode-master\191126_CART\PBT138 calibration for fast raction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CAR-T\MainCalibrationCode_Tony\MainCalibrationCode-master\191126_CART\PBT138 calibration for fast raction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6C1AAB-11E6-45CD-A645-5547B1669327}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33548B77-39E2-4087-B19A-42BEDE74159C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,12 +447,12 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -469,544 +469,544 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.7916372558843001</v>
+        <v>1.7816502461271799</v>
       </c>
       <c r="C2">
-        <v>8.0397957696033501E-2</v>
+        <v>4.62677206536974E-2</v>
       </c>
       <c r="D2">
-        <v>2.5603642672040801</v>
+        <v>2.6011046826264899</v>
       </c>
       <c r="E2">
-        <v>18.449637555987099</v>
+        <v>17.192729403308199</v>
       </c>
       <c r="F2">
-        <v>0.29187847153024998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29315591494853099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.3633075028438096E-2</v>
+        <v>1.4875231752100599</v>
       </c>
       <c r="C3">
-        <v>2.2842137802143998E-3</v>
+        <v>9.3124660265665696E-2</v>
       </c>
       <c r="D3">
-        <v>2.2464535167427799</v>
+        <v>2.2745585648453401</v>
       </c>
       <c r="E3">
-        <v>17.8765178639228</v>
+        <v>17.154482281475001</v>
       </c>
       <c r="F3">
-        <v>0.29465501043326398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.29460685599777198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.5324112061674899</v>
+        <v>1.5278208188935101</v>
       </c>
       <c r="C4">
-        <v>7.1152430828087407E-2</v>
+        <v>1.8927101303823801E-2</v>
       </c>
       <c r="D4">
-        <v>2.26546428018449</v>
+        <v>2.19004186014249</v>
       </c>
       <c r="E4">
-        <v>15.2120141505633</v>
+        <v>10.8057079897784</v>
       </c>
       <c r="F4">
-        <v>0.276380151659464</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.28077038873240601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2.2569791978965901</v>
+        <v>1.5349458137107901</v>
       </c>
       <c r="C5">
-        <v>0.21179371651381601</v>
+        <v>0.201263516911003</v>
       </c>
       <c r="D5">
-        <v>3.16947654803301</v>
+        <v>3.20295795657688</v>
       </c>
       <c r="E5">
-        <v>14.877908855467</v>
+        <v>11.397119386669299</v>
       </c>
       <c r="F5">
-        <v>0.27750863201481502</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.279682858006507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.74529073995000295</v>
+        <v>1.7053229217216701</v>
       </c>
       <c r="C6">
-        <v>0.102842339158445</v>
+        <v>0.22187326578441599</v>
       </c>
       <c r="D6">
-        <v>2.9613943800779201</v>
+        <v>3.05104709318748</v>
       </c>
       <c r="E6">
-        <v>15.860223391069599</v>
+        <v>9.7660588139571196</v>
       </c>
       <c r="F6">
-        <v>0.31363619474711801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.31527313344945102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>1.2969112722851801</v>
+        <v>0.23766374721339401</v>
       </c>
       <c r="C7">
-        <v>0.15308675861169799</v>
+        <v>9.4147837584414695E-2</v>
       </c>
       <c r="D7">
-        <v>2.5242575245182501</v>
+        <v>2.5578957268898899</v>
       </c>
       <c r="E7">
-        <v>14.2031622291652</v>
+        <v>14.7153654763489</v>
       </c>
       <c r="F7">
-        <v>0.24932061640153499</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.25277252811776801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.432633619610369</v>
+        <v>1.3242874451205999</v>
       </c>
       <c r="C8">
-        <v>7.8610877195002801E-2</v>
+        <v>0.114949280410448</v>
       </c>
       <c r="D8">
-        <v>3.5908775791715302</v>
+        <v>3.5733212150824301</v>
       </c>
       <c r="E8">
-        <v>16.888242447189501</v>
+        <v>19.6479060346112</v>
       </c>
       <c r="F8">
-        <v>0.28291402522605702</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.28350569412443399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.389352473366265</v>
+        <v>1.4879796637613301</v>
       </c>
       <c r="C9">
-        <v>7.1047347609737896E-2</v>
+        <v>0.12169906534515</v>
       </c>
       <c r="D9">
-        <v>3.1452731088194299</v>
+        <v>3.15047089384601</v>
       </c>
       <c r="E9">
-        <v>15.941178791886401</v>
+        <v>17.694436319571501</v>
       </c>
       <c r="F9">
-        <v>0.189426698208224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.191112747764904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>2.4713903694916701</v>
+        <v>2.49061555204243</v>
       </c>
       <c r="C10">
-        <v>0.18714089500242401</v>
+        <v>0.32610818453694201</v>
       </c>
       <c r="D10">
-        <v>2.2831086352732299</v>
+        <v>2.2880027503095999</v>
       </c>
       <c r="E10">
-        <v>13.3529191353858</v>
+        <v>6.0924229182195697</v>
       </c>
       <c r="F10">
-        <v>0.26566216792650599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.26484924154703299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>2.87047670086476</v>
+        <v>1.9655893232082999</v>
       </c>
       <c r="C11">
-        <v>0.126019576984126</v>
+        <v>7.9330087685354003E-3</v>
       </c>
       <c r="D11">
-        <v>9.6197620834335797</v>
+        <v>9.7230710353685605</v>
       </c>
       <c r="E11">
-        <v>1.1545070220359099</v>
+        <v>1.1062169130870301</v>
       </c>
       <c r="F11">
-        <v>0.26296947868535703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.34600489501338</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>1.97153544509889</v>
+        <v>2.8723668664269599</v>
       </c>
       <c r="C12">
-        <v>3.6870792396019002E-2</v>
+        <v>0.14879302887285401</v>
       </c>
       <c r="D12">
-        <v>9.9807349447640092</v>
+        <v>9.5312995441111799</v>
       </c>
       <c r="E12">
-        <v>1.04927296546575</v>
+        <v>1.3387948104476</v>
       </c>
       <c r="F12">
-        <v>0.30294698253506602</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.31031861151927298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>2.7725429110118598</v>
+        <v>2.3844488122553802</v>
       </c>
       <c r="C13">
-        <v>0.23078561757897501</v>
+        <v>0.10266321522015399</v>
       </c>
       <c r="D13">
-        <v>9.6800716825156101</v>
+        <v>8.8916703963260506</v>
       </c>
       <c r="E13">
-        <v>1.10874181886919</v>
+        <v>1.0016379167099401</v>
       </c>
       <c r="F13">
-        <v>0.12747966107060801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.209450183761338</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>2.8728953652598599</v>
+        <v>2.9221189825752099</v>
       </c>
       <c r="C14">
-        <v>0.105906898593243</v>
+        <v>3.2826439571789698E-2</v>
       </c>
       <c r="D14">
-        <v>9.4824797532946192</v>
+        <v>7.9363331205561103</v>
       </c>
       <c r="E14">
-        <v>1.0647664770854099</v>
+        <v>1.08461055646884</v>
       </c>
       <c r="F14">
-        <v>0.326427126145799</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.50473237583164399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>2.82699330285336</v>
+        <v>2.6471744318166301</v>
       </c>
       <c r="C15">
-        <v>0.14449802320972199</v>
+        <v>4.7927863495592603E-3</v>
       </c>
       <c r="D15">
-        <v>9.1070746704402694</v>
+        <v>9.4199822721862994</v>
       </c>
       <c r="E15">
-        <v>1.0939720434623901</v>
+        <v>1.1033653195617801</v>
       </c>
       <c r="F15">
-        <v>0.45807117672881098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.40472710482191998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>2.5446597309369299</v>
+        <v>2.64447195832954</v>
       </c>
       <c r="C16">
-        <v>0.242946944815224</v>
+        <v>4.2217613188598603E-2</v>
       </c>
       <c r="D16">
-        <v>9.5612147110823997</v>
+        <v>9.8602874676774608</v>
       </c>
       <c r="E16">
-        <v>1.0070753393896099</v>
+        <v>1.0688882947249101</v>
       </c>
       <c r="F16">
-        <v>0.51059533637133603</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.36427656474327602</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>2.8330361980101202</v>
+        <v>2.9734218625203699</v>
       </c>
       <c r="C17">
-        <v>0.36679617223827199</v>
+        <v>0.107225090667447</v>
       </c>
       <c r="D17">
-        <v>9.3524099218168999</v>
+        <v>9.8922968316854494</v>
       </c>
       <c r="E17">
-        <v>1.0822500510108</v>
+        <v>1.1421399316245999</v>
       </c>
       <c r="F17">
-        <v>0.89971713384459195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.49122583771143902</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>2.98630487095018</v>
+        <v>2.5266923315980199</v>
       </c>
       <c r="C18">
-        <v>0.366699384509106</v>
+        <v>3.5223992836999701E-2</v>
       </c>
       <c r="D18">
-        <v>9.8831290322471208</v>
+        <v>9.5123366531544598</v>
       </c>
       <c r="E18">
-        <v>1.0304832037001099</v>
+        <v>1.1376043922583401</v>
       </c>
       <c r="F18">
-        <v>0.57190718092353698</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.66884164651133005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>2.9037126033604199</v>
+        <v>2.5989197168315901</v>
       </c>
       <c r="C19">
-        <v>2.6485659751630999E-2</v>
+        <v>7.5560285360964902E-2</v>
       </c>
       <c r="D19">
-        <v>9.6936103850788307</v>
+        <v>9.8481848508219194</v>
       </c>
       <c r="E19">
-        <v>1.1094662400439901</v>
+        <v>1.14457050426866</v>
       </c>
       <c r="F19">
-        <v>0.20899815695461499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.42610550041626799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>2.0767605726020602</v>
+        <v>2.7197128803719099</v>
       </c>
       <c r="C20">
-        <v>1.8091608929153E-2</v>
+        <v>6.0844263830471E-2</v>
       </c>
       <c r="D20">
-        <v>2.13871675334779</v>
+        <v>1.9481628635605699</v>
       </c>
       <c r="E20">
-        <v>1.15974025409436</v>
+        <v>1.3562274243774</v>
       </c>
       <c r="F20">
-        <v>0.26989600782420298</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.22139506139314999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>2.3572843947606401</v>
+        <v>2.7002451262212701</v>
       </c>
       <c r="C21">
-        <v>5.3800142620375503E-2</v>
+        <v>1.52135123693843E-3</v>
       </c>
       <c r="D21">
-        <v>2.46594050598772</v>
+        <v>2.10544418350467</v>
       </c>
       <c r="E21">
-        <v>1.32644379478476</v>
+        <v>1.35463463721079</v>
       </c>
       <c r="F21">
-        <v>0.247067085317448</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.14475356527295699</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>2.94391277443715</v>
+        <v>2.6161533250734599</v>
       </c>
       <c r="C22">
-        <v>1.32127371714875E-2</v>
+        <v>0.14231616399217001</v>
       </c>
       <c r="D22">
-        <v>1.69196509201857</v>
+        <v>1.92286758152138</v>
       </c>
       <c r="E22">
-        <v>1.39968727890348</v>
+        <v>1.3311284846423099</v>
       </c>
       <c r="F22">
-        <v>0.22741873028776299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.36925342229849001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>2.6357612216267401</v>
+        <v>2.9912608754290702</v>
       </c>
       <c r="C23">
-        <v>4.9525304376609701E-2</v>
+        <v>0.12261880602382801</v>
       </c>
       <c r="D23">
-        <v>1.9266629180352</v>
+        <v>1.8209785802282199</v>
       </c>
       <c r="E23">
-        <v>1.4134820885777499</v>
+        <v>1.8816591769809099</v>
       </c>
       <c r="F23">
-        <v>0.55537383841007504</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.54171340455717498</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>27</v>
       </c>
       <c r="B24">
-        <v>2.9262894581137902</v>
+        <v>2.71821010723278</v>
       </c>
       <c r="C24">
-        <v>0.28230638698877802</v>
+        <v>4.5339098927737201E-2</v>
       </c>
       <c r="D24">
-        <v>2.41692467361846</v>
+        <v>2.0603436565097102</v>
       </c>
       <c r="E24">
-        <v>1.2617956304559299</v>
+        <v>1.8338282645422801</v>
       </c>
       <c r="F24">
-        <v>0.64153088920395296</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.53143401564563397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>2.9045573964843898</v>
+        <v>2.5529407392947299</v>
       </c>
       <c r="C25">
-        <v>4.2015624976213903E-2</v>
+        <v>4.8018076021759802E-2</v>
       </c>
       <c r="D25">
-        <v>1.56714377431509</v>
+        <v>1.4960466316874901</v>
       </c>
       <c r="E25">
-        <v>1.9511919226349399</v>
+        <v>1.3262825331500601</v>
       </c>
       <c r="F25">
-        <v>0.47909278348315498</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.49683576366341198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26">
-        <v>2.7236974319567899</v>
+        <v>2.2522803161735099</v>
       </c>
       <c r="C26">
-        <v>7.4451467380877101E-2</v>
+        <v>4.7186330399292299E-2</v>
       </c>
       <c r="D26">
-        <v>1.94927355863925</v>
+        <v>2.0948341979981602</v>
       </c>
       <c r="E26">
-        <v>1.27719238189351</v>
+        <v>1.2749897567587001</v>
       </c>
       <c r="F26">
-        <v>0.69024257622569296</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.80826119354002801</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>2.9111773308676199</v>
+        <v>2.6737809027466199</v>
       </c>
       <c r="C27">
-        <v>3.2083330160603503E-2</v>
+        <v>7.9821177371524707E-2</v>
       </c>
       <c r="D27">
-        <v>1.8901149906630801</v>
+        <v>2.0650311342266101</v>
       </c>
       <c r="E27">
-        <v>1.93991789896346</v>
+        <v>1.56187570474451</v>
       </c>
       <c r="F27">
-        <v>0.74835086661370098</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.81094310792703395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>2.9871263847487</v>
+        <v>2.9583108572495802</v>
       </c>
       <c r="C28">
-        <v>6.0091807818943403E-2</v>
+        <v>2.0877694069103898E-2</v>
       </c>
       <c r="D28">
-        <v>1.67572576584497</v>
+        <v>1.8609369028358</v>
       </c>
       <c r="E28">
-        <v>1.7577953306134</v>
+        <v>2.3887879891327901</v>
       </c>
       <c r="F28">
-        <v>0.62466815201706305</v>
+        <v>0.66981259927303305</v>
       </c>
     </row>
   </sheetData>
